--- a/output/only_primer/blast/Evaluation_result.xlsx
+++ b/output/only_primer/blast/Evaluation_result.xlsx
@@ -14,12 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
   <si>
     <t>Warning</t>
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>b4425;UHA</t>
+  </si>
+  <si>
+    <t>b4440;UHA</t>
+  </si>
+  <si>
+    <t>b4425;DHA</t>
+  </si>
+  <si>
+    <t>b4454;DHA</t>
+  </si>
+  <si>
+    <t>The target sequence can map to multiple positions in the reference genome. The genome editing may be mislocated.</t>
   </si>
 </sst>
 </file>
@@ -377,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -391,6 +406,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/output/only_primer/blast/Evaluation_result.xlsx
+++ b/output/only_primer/blast/Evaluation_result.xlsx
@@ -14,27 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Warning</t>
   </si>
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>b4425;UHA</t>
-  </si>
-  <si>
-    <t>b4440;UHA</t>
-  </si>
-  <si>
-    <t>b4425;DHA</t>
-  </si>
-  <si>
-    <t>b4454;DHA</t>
-  </si>
-  <si>
-    <t>The target sequence can map to multiple positions in the reference genome. The genome editing may be mislocated.</t>
   </si>
 </sst>
 </file>
@@ -392,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -406,38 +391,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
